--- a/Matlab/class_analysis/second_time/hp.xlsx
+++ b/Matlab/class_analysis/second_time/hp.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
   <si>
     <t>h</t>
   </si>
@@ -163,16 +181,16 @@
   <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.2578125" customWidth="true"/>
-    <col min="2" max="2" width="16.34765625" customWidth="true"/>
+    <col min="1" max="1" width="2.28515625" customWidth="true"/>
+    <col min="2" max="2" width="16.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
